--- a/eda/vlsp_chunk/train/column-2-analyze.xlsx
+++ b/eda/vlsp_chunk/train/column-2-analyze.xlsx
@@ -14,126 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>A, T, E, X, V, P, N, L, I, S</t>
-  </si>
-  <si>
     <t>cùng, nhiều, khác, gần, lớn, phải, đúng, đủ, cao, như</t>
   </si>
   <si>
+    <t>A, T, E, X, V, P, N, L, I, Z</t>
+  </si>
+  <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>N, P, M, Np, Nc, L, A, Ny, T, B</t>
-  </si>
-  <si>
     <t>một, những, các, ông, người, tôi, anh, khi, hai, nhà</t>
   </si>
   <si>
+    <t>N, M, P, Np, Nc, L, A, Ny, T, FW</t>
+  </si>
+  <si>
     <t>B-PP</t>
   </si>
   <si>
-    <t>E, T, X, V, N, P, A, R, CH, B</t>
-  </si>
-  <si>
-    <t>của, trong, với, ở, cho, để, từ, trên, đến, vào</t>
-  </si>
-  <si>
-    <t>B-QP</t>
-  </si>
-  <si>
-    <t>M, T, A, L, P, E, N</t>
-  </si>
-  <si>
-    <t>một, 1, 3, 2004, 10, 8, 2, 7, 6, 12</t>
-  </si>
-  <si>
-    <t>B-RP</t>
-  </si>
-  <si>
-    <t>R, T</t>
-  </si>
-  <si>
-    <t>không, Lập_tức, dần_dần, ngay_lập_tức, Thậm_chí, thỉnh_thoảng, Không, thậm_chí, Có_lẽ, đâu</t>
+    <t>của, trong, với, ở, cho, để, từ, đến, trên, về</t>
+  </si>
+  <si>
+    <t>E, T, N, X, V, P, Np, A, R, CH</t>
   </si>
   <si>
     <t>B-VP</t>
   </si>
   <si>
-    <t>V, A, T, E, X, P, I, N, B, S</t>
-  </si>
-  <si>
     <t>có, là, được, đi, làm, phải, bị, nói, cho, biết</t>
   </si>
   <si>
+    <t>V, A, T, E, X, P, I, N, FW, Z</t>
+  </si>
+  <si>
     <t>I-AP</t>
   </si>
   <si>
-    <t>A, N, T, P, V, E, X, I, M, S</t>
-  </si>
-  <si>
-    <t>nhất, nhau, lắm, đây, hơn, vì, người, ngày, gì, vậy</t>
+    <t>nhất, nhau, lắm, đây, hơn, vì, người, gì, vậy, ngày</t>
+  </si>
+  <si>
+    <t>A, N, T, P, V, E, X, I, M, Np</t>
   </si>
   <si>
     <t>I-NP</t>
   </si>
   <si>
+    <t>người, này, năm, con, đó, ngày, nhà, nào, đồng, ấy</t>
+  </si>
+  <si>
     <t>N, Np, V, P, A, M, Nc, Nu, Ny, T</t>
   </si>
   <si>
-    <t>người, này, năm, con, đó, ngày, nhà, nào, đồng, ấy</t>
-  </si>
-  <si>
-    <t>I-PP</t>
-  </si>
-  <si>
-    <t>E, N, X, P, T, L, Np, V</t>
-  </si>
-  <si>
-    <t>đến, trong, trên, khi, tận, từ, sau, tại, cho, đó</t>
-  </si>
-  <si>
-    <t>I-QP</t>
-  </si>
-  <si>
-    <t>M, Nu, E, L, A</t>
-  </si>
-  <si>
-    <t>triệu, 1, hai, đồng, tỉ, trong, trăm_ngàn, 5_triệu, sáu_trăm_ngàn, 10_triệu</t>
-  </si>
-  <si>
     <t>I-VP</t>
   </si>
   <si>
-    <t>V, N, A, T, P, X, E, Np, M, B</t>
-  </si>
-  <si>
     <t>biết, nhau, thấy, đi, học, gì, là, thêm, làm, cho</t>
   </si>
   <si>
+    <t>V, N, A, T, P, X, E, Np, M, FW</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>,, ., ", và, không, đã, :, ..., -, cũng</t>
+  </si>
+  <si>
     <t>CH, R, C, X, T, P, E, I, V, N</t>
-  </si>
-  <si>
-    <t>,, ., ", và, không, đã, :, ..., -, cũng</t>
   </si>
 </sst>
 </file>
@@ -482,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,168 +472,112 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>5221</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>44674</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44336</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>9983</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9822</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="n">
+        <v>27978</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="n">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="n">
+        <v>26303</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>27978</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="n">
+        <v>4089</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="n">
+        <v>40343</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="n">
-        <v>40308</v>
       </c>
     </row>
   </sheetData>
